--- a/PVH.xlsx
+++ b/PVH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB89770C-73C1-4877-9452-88B78A71541F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3760D5E-1719-461B-BB96-A52144F2AB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{4E82A43E-637D-4DBB-91B0-A5D722633EBD}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{4E82A43E-637D-4DBB-91B0-A5D722633EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -234,13 +234,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -414,33 +420,38 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -779,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E0AF53-00DD-49E0-9789-00B0461E23A4}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -803,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="7">
-        <v>82.63</v>
+        <v>88.25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -811,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="4">
-        <v>48.073120000000003</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>51</v>
+        <v>48.119782000000001</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -826,7 +837,7 @@
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>3972.2819055999998</v>
+        <v>4246.5707615000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -837,10 +848,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="4">
-        <v>191</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>51</v>
+        <v>248.8</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -848,11 +859,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="4">
-        <f>115+512.2+1720.1</f>
-        <v>2347.3000000000002</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>51</v>
+        <f>0+2256</f>
+        <v>2256</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -867,7 +878,7 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>6128.5819056</v>
+        <v>6253.7707614999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -906,7 +917,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,13 +999,17 @@
       <c r="G3" s="4">
         <v>882.9</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>1014.2</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
         <v>927.8</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>1048.5</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1068,13 +1083,17 @@
       <c r="G4" s="4">
         <v>569.20000000000005</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>617.5</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4">
         <v>608.4</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>684</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1148,13 +1167,17 @@
       <c r="G5" s="4">
         <v>402.5</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>339.8</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
         <v>351.7</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>335.2</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1228,13 +1251,17 @@
       <c r="G6" s="4">
         <v>1013.3</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>1093.4000000000001</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4">
         <v>1048.0999999999999</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>1135.9000000000001</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1308,13 +1335,17 @@
       <c r="G7" s="4">
         <v>886.8</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>930.3</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
         <v>886.1</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <v>980</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1388,13 +1419,17 @@
       <c r="G8" s="4">
         <v>51.8</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>50.6</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
         <v>49.4</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>51.3</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1470,7 +1505,9 @@
       <c r="G9" s="4">
         <v>1008.7</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>954.4</v>
+      </c>
       <c r="I9" s="4">
         <v>1203.0999999999999</v>
       </c>
@@ -1478,7 +1515,9 @@
       <c r="K9" s="4">
         <v>1071.3</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>1013.1</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1560,7 +1599,9 @@
       <c r="G10" s="4">
         <v>697.5</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>836.4</v>
+      </c>
       <c r="I10" s="4">
         <v>760</v>
       </c>
@@ -1568,7 +1609,9 @@
       <c r="K10" s="4">
         <v>663</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>868</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1650,7 +1693,9 @@
       <c r="G11" s="4">
         <v>148.4</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>180.7</v>
+      </c>
       <c r="I11" s="4">
         <v>167.9</v>
       </c>
@@ -1658,7 +1703,9 @@
       <c r="K11" s="4">
         <v>153.5</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <v>186.6</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1740,7 +1787,9 @@
       <c r="G12" s="4">
         <v>845.9</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>1017.1</v>
+      </c>
       <c r="I12" s="4">
         <v>2131</v>
       </c>
@@ -1748,7 +1797,9 @@
       <c r="K12" s="4">
         <v>816.5</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>1054.5999999999999</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1830,7 +1881,9 @@
       <c r="G13" s="4">
         <v>97.3</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>102.8</v>
+      </c>
       <c r="I13" s="4">
         <v>97.9</v>
       </c>
@@ -1838,7 +1891,9 @@
       <c r="K13" s="4">
         <v>95.8</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <v>99.5</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1920,7 +1975,9 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
       <c r="I14" s="4">
         <v>26.2</v>
       </c>
@@ -1928,7 +1985,9 @@
       <c r="K14" s="4">
         <v>0</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2021,8 +2080,7 @@
         <v>1951.9</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2074.3000000000002</v>
       </c>
       <c r="I15" s="6">
         <f>+SUM(I12:I14)</f>
@@ -2035,7 +2093,9 @@
       <c r="K15" s="6">
         <v>1983.6</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <v>2167.1999999999998</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="4"/>
@@ -2129,7 +2189,9 @@
       <c r="G16" s="4">
         <v>753.2</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>828.4</v>
+      </c>
       <c r="I16" s="4">
         <v>938.5</v>
       </c>
@@ -2137,7 +2199,9 @@
       <c r="K16" s="4">
         <v>821.9</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>916.4</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -2232,7 +2296,7 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1245.9000000000001</v>
       </c>
       <c r="I17" s="4">
         <f>+I15-I16</f>
@@ -2246,7 +2310,10 @@
         <f>+K15-K16</f>
         <v>1161.6999999999998</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <f>+L15-L16</f>
+        <v>1250.7999999999997</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2340,7 +2407,9 @@
       <c r="G18" s="4">
         <v>1017.3</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4">
+        <v>1083.3</v>
+      </c>
       <c r="I18" s="4">
         <v>1154</v>
       </c>
@@ -2349,7 +2418,9 @@
         <f>1023.9+479.5</f>
         <v>1503.4</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <v>1128.9000000000001</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2444,7 +2515,7 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>162.60000000000014</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="5"/>
@@ -2458,7 +2529,10 @@
         <f>+K17-K18</f>
         <v>-341.70000000000027</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <f>+L17-L18</f>
+        <v>121.89999999999964</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2552,7 +2626,9 @@
       <c r="G20" s="4">
         <v>0.5</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>0.4</v>
+      </c>
       <c r="I20" s="4">
         <v>0.4</v>
       </c>
@@ -2560,7 +2636,9 @@
       <c r="K20" s="4">
         <v>-1</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <v>-0.9</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2643,7 +2721,9 @@
       <c r="G21" s="4">
         <v>10</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
       <c r="I21" s="4">
         <v>9.5</v>
       </c>
@@ -2651,7 +2731,9 @@
       <c r="K21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2733,7 +2815,9 @@
       <c r="G22" s="4">
         <v>13.2</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4">
+        <v>10.9</v>
+      </c>
       <c r="I22" s="4">
         <v>10.6</v>
       </c>
@@ -2741,7 +2825,9 @@
       <c r="K22" s="4">
         <v>10.5</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <v>12.2</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2823,7 +2909,9 @@
       <c r="G23" s="4">
         <v>23.3</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>22.8</v>
+      </c>
       <c r="I23" s="4">
         <v>23</v>
       </c>
@@ -2831,7 +2919,9 @@
       <c r="K23" s="4">
         <v>22.4</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>25.8</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2913,7 +3003,9 @@
       <c r="G24" s="4">
         <v>5.6</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>3.7</v>
+      </c>
       <c r="I24" s="4">
         <v>6.9</v>
       </c>
@@ -2921,7 +3013,9 @@
       <c r="K24" s="4">
         <v>5</v>
       </c>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4">
+        <v>3.8</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -3016,21 +3110,24 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>154.80000000000013</v>
       </c>
       <c r="I25" s="4">
         <f>+I19+SUM(I20:I22)-I23+I24</f>
         <v>166.99999999999991</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" ref="J25:K25" si="13">+J19+SUM(J20:J22)-J23+J24</f>
+        <f t="shared" ref="J25:L25" si="13">+J19+SUM(J20:J22)-J23+J24</f>
         <v>0</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="13"/>
         <v>-349.60000000000025</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <f t="shared" si="13"/>
+        <v>111.19999999999965</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -3124,7 +3221,9 @@
       <c r="G26" s="4">
         <v>36</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>-3.2</v>
+      </c>
       <c r="I26" s="4">
         <v>35.1</v>
       </c>
@@ -3132,7 +3231,9 @@
       <c r="K26" s="4">
         <v>-304.8</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4">
+        <v>-113</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -3227,21 +3328,24 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>158.00000000000011</v>
       </c>
       <c r="I27" s="4">
         <f>+I25-I26</f>
         <v>131.89999999999992</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" ref="J27:K27" si="21">+J25-J26</f>
+        <f t="shared" ref="J27:L27" si="21">+J25-J26</f>
         <v>0</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="21"/>
         <v>-44.800000000000239</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="4">
+        <f t="shared" si="21"/>
+        <v>224.19999999999965</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -3412,16 +3516,16 @@
         <v>2.6799336650082939</v>
       </c>
       <c r="F29" s="7" t="e">
-        <f t="shared" ref="F29:K29" si="25">+F27/F30</f>
+        <f t="shared" ref="F29:L29" si="25">+F27/F30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="25"/>
         <v>2.5924657534246585</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="7">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>2.7964601769911526</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="25"/>
@@ -3435,7 +3539,10 @@
         <f t="shared" si="25"/>
         <v>-0.8767123287671279</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7">
+        <f t="shared" si="25"/>
+        <v>4.6611226611226533</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -3503,7 +3610,9 @@
       <c r="G30" s="8">
         <v>58.4</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8">
+        <v>56.5</v>
+      </c>
       <c r="I30" s="8">
         <v>55.8</v>
       </c>
@@ -3511,7 +3620,9 @@
       <c r="K30" s="8">
         <v>51.1</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="8">
+        <v>48.1</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -3602,31 +3713,37 @@
       <c r="AU31" s="8"/>
     </row>
     <row r="32" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9" t="e">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23" t="e">
         <f>+G15/C15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="9" t="e">
+      <c r="H32" s="23" t="e">
         <f>+H15/D15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="23">
         <f>+I15/E15-1</f>
         <v>-4.5621905285877618E-2</v>
       </c>
-      <c r="J32" s="9" t="e">
+      <c r="J32" s="23" t="e">
         <f>+J15/F15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="23">
+        <f t="shared" ref="K32:L32" si="27">+K15/G15-1</f>
+        <v>1.6240586095598974E-2</v>
+      </c>
+      <c r="L32" s="23">
+        <f t="shared" si="27"/>
+        <v>4.478619293255548E-2</v>
+      </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="8"/>
@@ -3683,61 +3800,67 @@
         <v>38</v>
       </c>
       <c r="C33" s="9" t="e">
-        <f t="shared" ref="C33:I33" si="27">+C17/C15</f>
+        <f t="shared" ref="C33:I33" si="28">+C17/C15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D33" s="9" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.56684582504549497</v>
       </c>
       <c r="F33" s="9" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.61411957579794041</v>
       </c>
-      <c r="H33" s="9" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="H33" s="9">
+        <f t="shared" si="28"/>
+        <v>0.60063635925372416</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.58383220256307922</v>
       </c>
       <c r="J33" s="9" t="e">
         <f>+J17/J15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="K33" s="9">
+        <f t="shared" ref="K33:L33" si="29">+K17/K15</f>
+        <v>0.58565234926396448</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="29"/>
+        <v>0.5771502399409375</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="9" t="e">
-        <f t="shared" ref="Q33:U33" si="28">+Q17/Q15</f>
+        <f t="shared" ref="Q33:U33" si="30">+Q17/Q15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.56768467010926171</v>
       </c>
       <c r="T33" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.58183711771917079</v>
       </c>
       <c r="U33" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.59430942227461325</v>
       </c>
       <c r="V33" s="8"/>
@@ -3772,11 +3895,11 @@
         <v>39</v>
       </c>
       <c r="C34" s="9" t="e">
-        <f t="shared" ref="C34:D34" si="29">+C19/C15</f>
+        <f t="shared" ref="C34:D34" si="31">+C19/C15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D34" s="9" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="9">
@@ -3784,49 +3907,55 @@
         <v>9.1243810571755096E-2</v>
       </c>
       <c r="F34" s="9" t="e">
-        <f t="shared" ref="F34:J34" si="30">+F19/F15</f>
+        <f t="shared" ref="F34:J34" si="32">+F19/F15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9.2935088887750442E-2</v>
       </c>
-      <c r="H34" s="9" t="e">
-        <f t="shared" si="30"/>
+      <c r="H34" s="9">
+        <f t="shared" si="32"/>
+        <v>7.8387889890565554E-2</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="32"/>
+        <v>7.2103232672608722E-2</v>
+      </c>
+      <c r="J34" s="9" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="9">
-        <f t="shared" si="30"/>
-        <v>7.2103232672608722E-2</v>
-      </c>
-      <c r="J34" s="9" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="K34" s="9">
+        <f t="shared" ref="K34:L34" si="33">+K19/K15</f>
+        <v>-0.17226255293405943</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="33"/>
+        <v>5.6247692875599692E-2</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="9" t="e">
-        <f t="shared" ref="Q34:U34" si="31">+Q19/Q15</f>
+        <f t="shared" ref="Q34:U34" si="34">+Q19/Q15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="9" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8.26112009928857E-2</v>
       </c>
       <c r="T34" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8.9024377013788722E-2</v>
       </c>
       <c r="U34" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8.4503461267320959E-2</v>
       </c>
       <c r="V34" s="8"/>
@@ -3861,61 +3990,67 @@
         <v>40</v>
       </c>
       <c r="C35" s="9" t="e">
-        <f t="shared" ref="C35:H35" si="32">+C26/C25</f>
+        <f t="shared" ref="C35:H35" si="35">+C26/C25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.22157996146435441</v>
       </c>
       <c r="F35" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.19210245464247591</v>
       </c>
-      <c r="H35" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+      <c r="H35" s="9">
+        <f t="shared" si="35"/>
+        <v>-2.0671834625322981E-2</v>
       </c>
       <c r="I35" s="9">
         <f>+I26/I25</f>
         <v>0.21017964071856299</v>
       </c>
       <c r="J35" s="9" t="e">
-        <f t="shared" ref="J35" si="33">+J26/J25</f>
+        <f t="shared" ref="J35:L35" si="36">+J26/J25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="K35" s="9">
+        <f t="shared" si="36"/>
+        <v>0.87185354691075456</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="36"/>
+        <v>-1.0161870503597155</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="9" t="e">
-        <f t="shared" ref="Q35:U35" si="34">+Q26/Q25</f>
+        <f t="shared" ref="Q35:U35" si="37">+Q26/Q25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="9" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.48377125193199505</v>
       </c>
       <c r="T35" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.13959571938168841</v>
       </c>
       <c r="U35" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.15190590902649814</v>
       </c>
       <c r="V35" s="8"/>

--- a/PVH.xlsx
+++ b/PVH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3760D5E-1719-461B-BB96-A52144F2AB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA35A5D-E182-4C23-81D4-E13F38FD2118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{4E82A43E-637D-4DBB-91B0-A5D722633EBD}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{4E82A43E-637D-4DBB-91B0-A5D722633EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -447,11 +447,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -790,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E0AF53-00DD-49E0-9789-00B0461E23A4}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -814,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="7">
-        <v>88.25</v>
+        <v>76.37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -822,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="4">
-        <v>48.119782000000001</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>52</v>
+        <v>45.802695999999997</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>4246.5707615000001</v>
+        <v>3497.9518935199999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -848,10 +848,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="4">
-        <v>248.8</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>52</v>
+        <v>158.19999999999999</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -859,11 +859,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="4">
-        <f>0+2256</f>
-        <v>2256</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>52</v>
+        <f>12.7+2246.1</f>
+        <v>2258.7999999999997</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>6253.7707614999999</v>
+        <v>5598.5518935199998</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -913,11 +913,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B290B7-A3DC-4D3A-A9CD-5D107CBCFC5C}">
   <dimension ref="A1:BU605"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1002,9 @@
       <c r="H3" s="4">
         <v>1014.2</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>1072.7</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
         <v>927.8</v>
@@ -1010,7 +1012,9 @@
       <c r="L3" s="4">
         <v>1048.5</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>1113.9000000000001</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1086,7 +1090,9 @@
       <c r="H4" s="4">
         <v>617.5</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>666.3</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4">
         <v>608.4</v>
@@ -1094,7 +1100,9 @@
       <c r="L4" s="4">
         <v>684</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>682.8</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1170,7 +1178,9 @@
       <c r="H5" s="4">
         <v>339.8</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>397.7</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
         <v>351.7</v>
@@ -1178,7 +1188,9 @@
       <c r="L5" s="4">
         <v>335.2</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>391.9</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1254,7 +1266,9 @@
       <c r="H6" s="4">
         <v>1093.4000000000001</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>1200.9000000000001</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4">
         <v>1048.0999999999999</v>
@@ -1262,7 +1276,9 @@
       <c r="L6" s="4">
         <v>1135.9000000000001</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>1217.7</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1338,7 +1354,9 @@
       <c r="H7" s="4">
         <v>930.3</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>993.9</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
         <v>886.1</v>
@@ -1346,7 +1364,9 @@
       <c r="L7" s="4">
         <v>980</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>1018.2</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1422,7 +1442,9 @@
       <c r="H8" s="4">
         <v>50.6</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <v>60.3</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
         <v>49.4</v>
@@ -1430,7 +1452,9 @@
       <c r="L8" s="4">
         <v>51.3</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>58.4</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1518,7 +1542,9 @@
       <c r="L9" s="4">
         <v>1013.1</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>1257.5999999999999</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1612,7 +1638,9 @@
       <c r="L10" s="4">
         <v>868</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>760.7</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1706,7 +1734,9 @@
       <c r="L11" s="4">
         <v>186.6</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>170.3</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1800,7 +1830,10 @@
       <c r="L12" s="4">
         <v>1054.5999999999999</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <f>+M10+M11</f>
+        <v>931</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1894,7 +1927,9 @@
       <c r="L13" s="4">
         <v>99.5</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <v>105.7</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1988,7 +2023,9 @@
       <c r="L14" s="4">
         <v>0</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2061,7 +2098,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:H15" si="0">+SUM(C12:C14)</f>
+        <f t="shared" ref="C15:F15" si="0">+SUM(C12:C14)</f>
         <v>0</v>
       </c>
       <c r="D15" s="6">
@@ -2096,7 +2133,9 @@
       <c r="L15" s="6">
         <v>2167.1999999999998</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6">
+        <v>2294.3000000000002</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="4"/>
       <c r="P15" s="6">
@@ -2202,7 +2241,9 @@
       <c r="L16" s="4">
         <v>916.4</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <v>1001.5</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2314,7 +2355,10 @@
         <f>+L15-L16</f>
         <v>1250.7999999999997</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4">
+        <f>+M15-M16</f>
+        <v>1292.8000000000002</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4">
@@ -2421,7 +2465,9 @@
       <c r="L18" s="4">
         <v>1128.9000000000001</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>1121</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2533,7 +2579,10 @@
         <f>+L17-L18</f>
         <v>121.89999999999964</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4">
+        <f>+M17-M18</f>
+        <v>171.80000000000018</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4">
@@ -2639,7 +2688,9 @@
       <c r="L20" s="4">
         <v>-0.9</v>
       </c>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4">
+        <v>-1</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2734,7 +2785,9 @@
       <c r="L21" s="4">
         <v>0</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2828,7 +2881,9 @@
       <c r="L22" s="4">
         <v>12.2</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>10</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2922,7 +2977,9 @@
       <c r="L23" s="4">
         <v>25.8</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4">
+        <v>23.2</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -3016,7 +3073,9 @@
       <c r="L24" s="4">
         <v>3.8</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="4">
+        <v>2.7</v>
+      </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -3117,7 +3176,7 @@
         <v>166.99999999999991</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" ref="J25:L25" si="13">+J19+SUM(J20:J22)-J23+J24</f>
+        <f t="shared" ref="J25:M25" si="13">+J19+SUM(J20:J22)-J23+J24</f>
         <v>0</v>
       </c>
       <c r="K25" s="4">
@@ -3128,7 +3187,10 @@
         <f t="shared" si="13"/>
         <v>111.19999999999965</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4">
+        <f t="shared" si="13"/>
+        <v>160.30000000000018</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4">
@@ -3234,7 +3296,9 @@
       <c r="L26" s="4">
         <v>-113</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4">
+        <v>156.1</v>
+      </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -3335,7 +3399,7 @@
         <v>131.89999999999992</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" ref="J27:L27" si="21">+J25-J26</f>
+        <f t="shared" ref="J27:M27" si="21">+J25-J26</f>
         <v>0</v>
       </c>
       <c r="K27" s="4">
@@ -3346,7 +3410,10 @@
         <f t="shared" si="21"/>
         <v>224.19999999999965</v>
       </c>
-      <c r="M27" s="4"/>
+      <c r="M27" s="4">
+        <f t="shared" si="21"/>
+        <v>4.2000000000001876</v>
+      </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4">
@@ -3516,7 +3583,7 @@
         <v>2.6799336650082939</v>
       </c>
       <c r="F29" s="7" t="e">
-        <f t="shared" ref="F29:L29" si="25">+F27/F30</f>
+        <f t="shared" ref="F29:M29" si="25">+F27/F30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="7">
@@ -3543,7 +3610,10 @@
         <f t="shared" si="25"/>
         <v>4.6611226611226533</v>
       </c>
-      <c r="M29" s="8"/>
+      <c r="M29" s="7">
+        <f t="shared" si="25"/>
+        <v>8.8794926004232305E-2</v>
+      </c>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="7" t="e">
@@ -3623,7 +3693,9 @@
       <c r="L30" s="8">
         <v>48.1</v>
       </c>
-      <c r="M30" s="8"/>
+      <c r="M30" s="8">
+        <v>47.3</v>
+      </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -3716,35 +3788,38 @@
       <c r="B32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23" t="e">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22" t="e">
         <f>+G15/C15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="23" t="e">
+      <c r="H32" s="22" t="e">
         <f>+H15/D15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <f>+I15/E15-1</f>
         <v>-4.5621905285877618E-2</v>
       </c>
-      <c r="J32" s="23" t="e">
+      <c r="J32" s="22" t="e">
         <f>+J15/F15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="23">
-        <f t="shared" ref="K32:L32" si="27">+K15/G15-1</f>
+      <c r="K32" s="22">
+        <f t="shared" ref="K32:M32" si="27">+K15/G15-1</f>
         <v>1.6240586095598974E-2</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="22">
         <f t="shared" si="27"/>
         <v>4.478619293255548E-2</v>
       </c>
-      <c r="M32" s="9"/>
+      <c r="M32" s="22">
+        <f t="shared" si="27"/>
+        <v>1.7382821160924156E-2</v>
+      </c>
       <c r="N32" s="9"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -3839,28 +3914,31 @@
         <f t="shared" si="29"/>
         <v>0.5771502399409375</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="M33" s="9">
+        <f t="shared" ref="M33" si="30">+M17/M15</f>
+        <v>0.56348341542082558</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="9" t="e">
-        <f t="shared" ref="Q33:U33" si="30">+Q17/Q15</f>
+        <f t="shared" ref="Q33:U33" si="31">+Q17/Q15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="9" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.56768467010926171</v>
       </c>
       <c r="T33" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.58183711771917079</v>
       </c>
       <c r="U33" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.59430942227461325</v>
       </c>
       <c r="V33" s="8"/>
@@ -3895,11 +3973,11 @@
         <v>39</v>
       </c>
       <c r="C34" s="9" t="e">
-        <f t="shared" ref="C34:D34" si="31">+C19/C15</f>
+        <f t="shared" ref="C34:D34" si="32">+C19/C15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D34" s="9" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="9">
@@ -3907,55 +3985,58 @@
         <v>9.1243810571755096E-2</v>
       </c>
       <c r="F34" s="9" t="e">
-        <f t="shared" ref="F34:J34" si="32">+F19/F15</f>
+        <f t="shared" ref="F34:J34" si="33">+F19/F15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>9.2935088887750442E-2</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7.8387889890565554E-2</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7.2103232672608722E-2</v>
       </c>
       <c r="J34" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" ref="K34:L34" si="33">+K19/K15</f>
+        <f t="shared" ref="K34:L34" si="34">+K19/K15</f>
         <v>-0.17226255293405943</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.6247692875599692E-2</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="M34" s="9">
+        <f t="shared" ref="M34" si="35">+M19/M15</f>
+        <v>7.4881227389617819E-2</v>
+      </c>
       <c r="N34" s="9"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="9" t="e">
-        <f t="shared" ref="Q34:U34" si="34">+Q19/Q15</f>
+        <f t="shared" ref="Q34:U34" si="36">+Q19/Q15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="9" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8.26112009928857E-2</v>
       </c>
       <c r="T34" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8.9024377013788722E-2</v>
       </c>
       <c r="U34" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8.4503461267320959E-2</v>
       </c>
       <c r="V34" s="8"/>
@@ -3990,27 +4071,27 @@
         <v>40</v>
       </c>
       <c r="C35" s="9" t="e">
-        <f t="shared" ref="C35:H35" si="35">+C26/C25</f>
+        <f t="shared" ref="C35:H35" si="37">+C26/C25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="9" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.22157996146435441</v>
       </c>
       <c r="F35" s="9" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.19210245464247591</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-2.0671834625322981E-2</v>
       </c>
       <c r="I35" s="9">
@@ -4018,39 +4099,42 @@
         <v>0.21017964071856299</v>
       </c>
       <c r="J35" s="9" t="e">
-        <f t="shared" ref="J35:L35" si="36">+J26/J25</f>
+        <f t="shared" ref="J35:L35" si="38">+J26/J25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.87185354691075456</v>
       </c>
       <c r="L35" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1.0161870503597155</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="M35" s="9">
+        <f t="shared" ref="M35" si="39">+M26/M25</f>
+        <v>0.97379912663755341</v>
+      </c>
       <c r="N35" s="9"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="9" t="e">
-        <f t="shared" ref="Q35:U35" si="37">+Q26/Q25</f>
+        <f t="shared" ref="Q35:U35" si="40">+Q26/Q25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="9" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.48377125193199505</v>
       </c>
       <c r="T35" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.13959571938168841</v>
       </c>
       <c r="U35" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.15190590902649814</v>
       </c>
       <c r="V35" s="8"/>
